--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_17-28.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_17-28.xlsx
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>0:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
@@ -1501,17 +1504,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1527,17 +1530,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1553,17 +1556,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1571,7 +1574,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1579,17 +1582,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1605,17 +1608,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1631,17 +1634,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1657,17 +1660,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1675,7 +1678,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1683,17 +1686,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1701,7 +1704,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1709,13 +1712,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1735,13 +1738,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1761,13 +1764,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1787,17 +1790,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1813,13 +1816,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1831,7 +1834,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1839,17 +1842,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1865,17 +1868,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1883,7 +1886,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1891,17 +1894,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1917,17 +1920,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1943,17 +1946,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1969,17 +1972,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1987,7 +1990,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1995,17 +1998,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2021,17 +2024,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2047,13 +2050,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2073,17 +2076,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2099,17 +2102,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2125,17 +2128,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2151,17 +2154,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>25</v>
+        <v>-96</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2177,13 +2180,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2203,17 +2206,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>14.67</v>
+        <v>53</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2221,7 +2224,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2229,17 +2232,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2255,17 +2258,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2281,17 +2284,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2307,17 +2310,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2325,7 +2328,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2333,17 +2336,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2359,17 +2362,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2377,7 +2380,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2385,17 +2388,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2411,17 +2414,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2437,13 +2440,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2463,51 +2466,77 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="K66" s="10">
-        <v>3426.21</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="11">
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
         <v>92</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c t="s" r="F67" s="12">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
+        <v>9</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>20</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="26.25" customHeight="1">
+      <c r="K67" s="10">
+        <v>3483.21</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="11">
         <v>93</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c t="s" r="I67" s="14">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c t="s" r="F68" s="12">
         <v>94</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13"/>
+      <c t="s" r="I68" s="14">
+        <v>95</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="200">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2701,10 +2730,13 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:N67"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:N68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
